--- a/medicine/Œil et vue/Serpents_tournants/Serpents_tournants.xlsx
+++ b/medicine/Œil et vue/Serpents_tournants/Serpents_tournants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les serpents tournants sont un type d’illusion d’optique conçue par le japonais Akiyoshi Kitaoka (en). 
-Professeur au département de psychologie de l’université Ritsumeikan de Kyoto au Japon, Akiyoshi Kitaoka a réalisé en 2003 la première image des serpents tournants désignée sous le nom anglais de rotating snakes. Akiyoshi Kitaoka a développé les concepts de base de Fraser, A. et Wilcox, K. J. (travaux de 1979)[1], de Faubert, J. et Herbert, A. M. (1999)[2] ainsi que de Naor-Raz, G. et Sekuler, R. (2000)[3]
+Professeur au département de psychologie de l’université Ritsumeikan de Kyoto au Japon, Akiyoshi Kitaoka a réalisé en 2003 la première image des serpents tournants désignée sous le nom anglais de rotating snakes. Akiyoshi Kitaoka a développé les concepts de base de Fraser, A. et Wilcox, K. J. (travaux de 1979), de Faubert, J. et Herbert, A. M. (1999) ainsi que de Naor-Raz, G. et Sekuler, R. (2000)
 Les serpents tournants sont une image fixe constituée d’une dizaine de ronds représentant symboliquement des serpents enroulés sur eux-mêmes. Lorsque nous parcourons des yeux les ronds, et malgré le fait que l’image soit fixe, les ronds se mettent à tourner sur eux-mêmes. Les cellules photoréceptrices s'épuisent face à la complexité de l'image, et cela créé l'illusion d'un mouvement.
 Akiyoshi Kitaoka a réalisé plusieurs variantes de l’illusion, déclinant les serpents sous diverses formes et couleurs. D’autres personnes ont également repris les concepts de base de Fraser et Wilcox pour créer à leur tour une illusion de type serpents tournants. Parmi ces personnes, nous pouvons citer des artistes graphistes comme Jens Carsten Rosemann ou le Belge Olivier Surin.
 </t>
